--- a/planning/DataPlan Project.xlsx
+++ b/planning/DataPlan Project.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my-stuff\code\24S1_WDC_UG_Group_92\planning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E50F6E4-5E29-4319-9A36-3984108BC0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Trang tính1" sheetId="1" r:id="rId4"/>
+    <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -797,64 +806,55 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF0D0D0D"/>
-      <name val="Söhne"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF0D0D0D"/>
-      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF0D0D0D"/>
-      <name val="Söhne"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -862,7 +862,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -877,28 +877,40 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -908,6 +920,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -922,6 +935,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -930,82 +944,130 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1195,997 +1257,1002 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.25"/>
-    <col customWidth="1" min="2" max="2" width="25.63"/>
-    <col customWidth="1" min="3" max="3" width="25.5"/>
-    <col customWidth="1" min="4" max="4" width="34.88"/>
-    <col customWidth="1" min="5" max="5" width="37.13"/>
-    <col customWidth="1" min="6" max="6" width="30.5"/>
-    <col customWidth="1" min="7" max="7" width="19.5"/>
-    <col customWidth="1" min="8" max="8" width="25.0"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="37.109375" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="201" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" ht="201" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" ht="201" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" ht="201" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" ht="201" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" ht="201" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" ht="201" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" ht="201" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" ht="201" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="13" t="s">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="14" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" ht="205.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="14" t="s">
+      <c r="H13" s="8"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" ht="205.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="14" t="s">
+      <c r="H14" s="8"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" ht="205.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="13" t="s">
+      <c r="H15" s="8"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" ht="138" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="s">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
+      <c r="H19" s="4"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
+      <c r="H20" s="4"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
+      <c r="H21" s="4"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="13" t="s">
+      <c r="H22" s="4"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" ht="216" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="s">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" ht="204.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="s">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" ht="207" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="18" t="s">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" ht="207" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="s">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" ht="207" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="s">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" ht="207" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="E29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="7" t="s">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" ht="207" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2205,6 +2272,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>